--- a/Employee_Reports28/Sumedha Pradeep Dissanayaka Q0559.xlsx
+++ b/Employee_Reports28/Sumedha Pradeep Dissanayaka Q0559.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -574,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -623,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -721,11 +718,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -770,11 +767,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -819,11 +816,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -868,11 +865,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -917,11 +914,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -966,11 +963,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1015,11 +1012,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1064,11 +1061,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1113,11 +1110,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1162,11 +1159,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1211,11 +1208,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1260,11 +1257,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1309,11 +1306,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1358,11 +1355,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1407,11 +1404,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1422,51 +1419,51 @@
       <c r="K20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v/>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2024</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2025</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
+      <c r="H21" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1502,11 +1499,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1549,11 +1546,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1596,11 +1593,11 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1633,11 +1630,11 @@
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -1670,11 +1667,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1717,11 +1714,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1757,7 +1754,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1817,7 +1814,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1842,7 +1839,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -1867,7 +1864,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -1892,7 +1889,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -1917,7 +1914,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
@@ -1942,7 +1939,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
@@ -1967,7 +1964,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F9" s="3" t="n"/>
@@ -1992,7 +1989,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F10" s="3" t="n"/>
